--- a/paper/data/regular/8node-final-pic.xlsx
+++ b/paper/data/regular/8node-final-pic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/Desktop/data/regular/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tongpingliu/projects/numalloc/paper/data/regular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A627825-1A64-844F-B86E-CD9CD837A8E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D1BD8D-B11D-634B-8BC9-65FD3DBAFF89}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-1940" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="48">
   <si>
     <t>pthread</t>
   </si>
@@ -179,7 +177,7 @@
     <t>2node</t>
   </si>
   <si>
-    <t>8node</t>
+    <t>NUMAlloc</t>
   </si>
 </sst>
 </file>
@@ -447,7 +445,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>numalloc</c:v>
+                  <c:v>NUMAlloc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1558,13 +1556,23 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15368151450305997"/>
+          <c:y val="3.7578512730158303E-2"/>
+          <c:w val="0.69263683451183311"/>
+          <c:h val="6.1673951930707051E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1000" baseline="0">
+            <a:defRPr sz="1100" baseline="0">
               <a:latin typeface="Times New Roman"/>
             </a:defRPr>
           </a:pPr>
@@ -1615,7 +1623,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>numalloc</c:v>
+                  <c:v>NUMAlloc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1648,9 +1656,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>AVERAGE</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8node</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>cache-scratch</c:v>
@@ -1760,9 +1765,6 @@
                 <c:pt idx="4">
                   <c:v>AVERAGE</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>8node</c:v>
-                </c:pt>
                 <c:pt idx="6">
                   <c:v>cache-scratch</c:v>
                 </c:pt>
@@ -1867,9 +1869,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>AVERAGE</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8node</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>cache-scratch</c:v>
@@ -1978,9 +1977,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>AVERAGE</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8node</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>cache-scratch</c:v>
@@ -2091,9 +2087,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>AVERAGE</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8node</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>cache-scratch</c:v>
@@ -2212,9 +2205,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>AVERAGE</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8node</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>cache-scratch</c:v>
@@ -2308,34 +2298,72 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
                   <a:t>Machine</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
                   <a:t> </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
                   <a:t>A</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
-                  <a:t>                                                                                                  </a:t>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>(2-Node)</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>                                                                   </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
                   <a:t>Machine</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
                   <a:t> </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-                  <a:t>B</a:t>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>B (8-Node)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" sz="1100">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2343,8 +2371,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.19769606267934603"/>
-              <c:y val="0.92440970368370112"/>
+              <c:x val="0.17160820295114521"/>
+              <c:y val="0.92440973377113866"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2376,18 +2404,18 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr/>
+                  <a:defRPr sz="1200"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Normalized Runtime</a:t>
                 </a:r>
               </a:p>
               <a:p>
                 <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr/>
+                  <a:defRPr sz="1200"/>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
+                <a:endParaRPr lang="zh-CN" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2395,8 +2423,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.8199296524476858E-2"/>
-              <c:y val="0.27897485740920858"/>
+              <c:x val="3.0373651956588723E-2"/>
+              <c:y val="0.2789748237562284"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2413,6 +2441,16 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -4514,16 +4552,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>866907</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>100547</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>497967</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>153908</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>759896</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>168181</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>429056</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>18769</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4550,16 +4588,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>8467</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>101058</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>61829</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>122402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>11551</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>789961</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>32896</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4656,6 +4694,124 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>693698</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>85378</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="410497" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9ED857B-CAA6-AA4E-98C0-15A57D704B4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8911345" y="11846218"/>
+          <a:ext cx="410497" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>text</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>237779</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>35005</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="410497" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D98D2DBC-66B1-7E4D-BE10-DA3E2F68C184}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10098955" y="11998618"/>
+          <a:ext cx="410497" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>text</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4663,57 +4819,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.08543</cdr:x>
-      <cdr:y>0.4204</cdr:y>
+      <cdr:x>0.3599</cdr:x>
+      <cdr:y>0.11</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.99746</cdr:x>
-      <cdr:y>0.4204</cdr:y>
-    </cdr:to>
-    <cdr:cxnSp macro="">
-      <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="3" name="Straight Connector 2">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3ED5EE2-4B4C-E244-9B4B-FA0E66D854B5}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvCxnSpPr/>
-      </cdr:nvCxnSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="627805" y="1558229"/>
-          <a:ext cx="6702490" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </cdr:style>
-    </cdr:cxnSp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.35699</cdr:x>
-      <cdr:y>0.10713</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.41977</cdr:x>
-      <cdr:y>0.17006</cdr:y>
+      <cdr:x>0.42268</cdr:x>
+      <cdr:y>0.17293</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -4728,8 +4839,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2623519" y="397085"/>
-          <a:ext cx="461347" cy="233265"/>
+          <a:off x="2637000" y="408933"/>
+          <a:ext cx="459988" cy="233946"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4740,8 +4851,11 @@
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000"/>
-            <a:t>2.22</a:t>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>2.22a</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -4749,11 +4863,11 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.28857</cdr:x>
+      <cdr:x>0.30022</cdr:x>
       <cdr:y>0.10993</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.35135</cdr:x>
+      <cdr:x>0.363</cdr:x>
       <cdr:y>0.17286</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
@@ -4769,8 +4883,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2120703" y="407452"/>
-          <a:ext cx="461347" cy="233265"/>
+          <a:off x="2199722" y="408669"/>
+          <a:ext cx="459987" cy="233946"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4781,7 +4895,10 @@
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
             <a:t>2.04</a:t>
           </a:r>
         </a:p>
@@ -4795,57 +4912,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.101</cdr:x>
-      <cdr:y>0.39693</cdr:y>
+      <cdr:x>0.12317</cdr:x>
+      <cdr:y>0.09853</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.99944</cdr:x>
-      <cdr:y>0.3983</cdr:y>
-    </cdr:to>
-    <cdr:cxnSp macro="">
-      <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="6" name="Straight Connector 5">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13C97F38-36E2-7941-A0D5-C46FD8FD3A7D}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvCxnSpPr/>
-      </cdr:nvCxnSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
-          <a:off x="741719" y="1718291"/>
-          <a:ext cx="6598093" cy="5907"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </cdr:style>
-    </cdr:cxnSp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.08663</cdr:x>
-      <cdr:y>0.10097</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.13533</cdr:x>
-      <cdr:y>0.15447</cdr:y>
+      <cdr:x>0.17187</cdr:x>
+      <cdr:y>0.15203</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -4860,15 +4932,15 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="634710" y="444939"/>
-          <a:ext cx="356768" cy="235762"/>
+          <a:off x="899400" y="430719"/>
+          <a:ext cx="355619" cy="233875"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </cdr:spPr>
       <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="b"/>
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:lvl1pPr marL="0" indent="0">
             <a:defRPr sz="1100">
@@ -4935,8 +5007,12 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
             <a:t>4.2</a:t>
           </a:r>
         </a:p>
@@ -4945,12 +5021,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.15625</cdr:x>
-      <cdr:y>0.10263</cdr:y>
+      <cdr:x>0.15771</cdr:x>
+      <cdr:y>0.09286</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.21503</cdr:x>
-      <cdr:y>0.15613</cdr:y>
+      <cdr:x>0.21649</cdr:x>
+      <cdr:y>0.14636</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -4965,15 +5041,15 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1144751" y="452237"/>
-          <a:ext cx="430633" cy="235762"/>
+          <a:off x="1151650" y="405957"/>
+          <a:ext cx="429226" cy="233876"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </cdr:spPr>
       <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="b"/>
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:lvl1pPr marL="0" indent="0">
             <a:defRPr sz="1100">
@@ -5040,8 +5116,12 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
             <a:t>43.7</a:t>
           </a:r>
         </a:p>
@@ -5078,7 +5158,7 @@
         </a:prstGeom>
       </cdr:spPr>
       <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:lvl1pPr marL="0" indent="0">
             <a:defRPr sz="1100">
@@ -5145,8 +5225,12 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="r"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
             <a:t>3.5</a:t>
           </a:r>
         </a:p>
@@ -5183,7 +5267,7 @@
         </a:prstGeom>
       </cdr:spPr>
       <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:lvl1pPr marL="0" indent="0">
             <a:defRPr sz="1100">
@@ -5250,8 +5334,12 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="r"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
             <a:t>1.8</a:t>
           </a:r>
         </a:p>
@@ -5288,7 +5376,7 @@
         </a:prstGeom>
       </cdr:spPr>
       <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:lvl1pPr marL="0" indent="0">
             <a:defRPr sz="1100">
@@ -5355,8 +5443,12 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="r"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
             <a:t>4.1</a:t>
           </a:r>
         </a:p>
@@ -5393,7 +5485,7 @@
         </a:prstGeom>
       </cdr:spPr>
       <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:lvl1pPr marL="0" indent="0">
             <a:defRPr sz="1100">
@@ -5460,8 +5552,12 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="r"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
             <a:t>2.9</a:t>
           </a:r>
         </a:p>
@@ -5498,7 +5594,7 @@
         </a:prstGeom>
       </cdr:spPr>
       <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:lvl1pPr marL="0" indent="0">
             <a:defRPr sz="1100">
@@ -5565,8 +5661,12 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="r"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
             <a:t>12.5</a:t>
           </a:r>
         </a:p>
@@ -5603,7 +5703,7 @@
         </a:prstGeom>
       </cdr:spPr>
       <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:lvl1pPr marL="0" indent="0">
             <a:defRPr sz="1100">
@@ -5670,8 +5770,12 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="r"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
             <a:t>2.7</a:t>
           </a:r>
         </a:p>
@@ -5708,7 +5812,7 @@
         </a:prstGeom>
       </cdr:spPr>
       <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:lvl1pPr marL="0" indent="0">
             <a:defRPr sz="1100">
@@ -5775,8 +5879,12 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="r"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
             <a:t>2.4</a:t>
           </a:r>
         </a:p>
@@ -5813,7 +5921,7 @@
         </a:prstGeom>
       </cdr:spPr>
       <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:lvl1pPr marL="0" indent="0">
             <a:defRPr sz="1100">
@@ -5880,8 +5988,12 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="r"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
             <a:t>2.4</a:t>
           </a:r>
         </a:p>
@@ -5918,7 +6030,7 @@
         </a:prstGeom>
       </cdr:spPr>
       <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:lvl1pPr marL="0" indent="0">
             <a:defRPr sz="1100">
@@ -5985,8 +6097,12 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="r"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
             <a:t>60.5</a:t>
           </a:r>
         </a:p>
@@ -6023,7 +6139,7 @@
         </a:prstGeom>
       </cdr:spPr>
       <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:lvl1pPr marL="0" indent="0">
             <a:defRPr sz="1100">
@@ -6090,8 +6206,12 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="r"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
             <a:t>2.1</a:t>
           </a:r>
         </a:p>
@@ -6128,7 +6248,7 @@
         </a:prstGeom>
       </cdr:spPr>
       <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:lvl1pPr marL="0" indent="0">
             <a:defRPr sz="1100">
@@ -6195,8 +6315,12 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="r"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
             <a:t>3.4</a:t>
           </a:r>
         </a:p>
@@ -6233,7 +6357,7 @@
         </a:prstGeom>
       </cdr:spPr>
       <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:lvl1pPr marL="0" indent="0">
             <a:defRPr sz="1100">
@@ -6300,8 +6424,12 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="r"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
             <a:t>2.4</a:t>
           </a:r>
         </a:p>
@@ -6338,7 +6466,7 @@
         </a:prstGeom>
       </cdr:spPr>
       <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:lvl1pPr marL="0" indent="0">
             <a:defRPr sz="1100">
@@ -6405,8 +6533,12 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="r"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
             <a:t>88.3</a:t>
           </a:r>
         </a:p>
@@ -6443,7 +6575,7 @@
         </a:prstGeom>
       </cdr:spPr>
       <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:lvl1pPr marL="0" indent="0">
             <a:defRPr sz="1100">
@@ -6510,8 +6642,12 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="r"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
             <a:t>16.4</a:t>
           </a:r>
         </a:p>
@@ -6548,7 +6684,7 @@
         </a:prstGeom>
       </cdr:spPr>
       <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:lvl1pPr marL="0" indent="0">
             <a:defRPr sz="1100">
@@ -6615,8 +6751,12 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="r"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
             <a:t>23.3</a:t>
           </a:r>
         </a:p>
@@ -8657,8 +8797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="174" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="I33" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
+      <selection activeCell="O60" sqref="O60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9331,7 +9471,7 @@
         <v>40</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>41</v>
@@ -10037,7 +10177,7 @@
         <v>40</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="D52" s="20" t="s">
         <v>41</v>
@@ -10193,9 +10333,7 @@
       </c>
     </row>
     <row r="58" spans="1:16">
-      <c r="A58" s="11" t="s">
-        <v>47</v>
-      </c>
+      <c r="A58" s="11"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>

--- a/paper/data/regular/8node-final-pic.xlsx
+++ b/paper/data/regular/8node-final-pic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tongpingliu/projects/numalloc/paper/data/regular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D1BD8D-B11D-634B-8BC9-65FD3DBAFF89}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A199262-CAAD-1247-96C5-A00113DD78C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1554,32 +1554,6 @@
         <c:majorUnit val="0.2"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.15368151450305997"/>
-          <c:y val="3.7578512730158303E-2"/>
-          <c:w val="0.69263683451183311"/>
-          <c:h val="6.1673951930707051E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1100" baseline="0">
-              <a:latin typeface="Times New Roman"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -8797,7 +8771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I33" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F12" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
       <selection activeCell="O60" sqref="O60"/>
     </sheetView>
   </sheetViews>

--- a/paper/data/regular/8node-final-pic.xlsx
+++ b/paper/data/regular/8node-final-pic.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tongpingliu/projects/numalloc/paper/data/regular/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/Library/Mobile Documents/com~apple~CloudDocs/C:C++ project/numalloc/paper/data/regular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A199262-CAAD-1247-96C5-A00113DD78C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FE9E3A-15D9-3D46-9EB4-CF9053FD9990}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -1552,6 +1554,7 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
+        <c:minorUnit val="0.2"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -2355,6 +2358,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="2121495336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -2366,7 +2379,7 @@
         <c:axId val="2121495336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.8"/>
+          <c:max val="1.4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2378,18 +2391,18 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1100"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:rPr lang="en-US" sz="1100"/>
                   <a:t>Normalized Runtime</a:t>
                 </a:r>
               </a:p>
               <a:p>
                 <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1100"/>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN" sz="1200"/>
+                <a:endParaRPr lang="zh-CN" sz="1100"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4562,16 +4575,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>61829</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>122402</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>490925</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>143747</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>789961</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>32896</xdr:rowOff>
+      <xdr:colOff>419387</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>54241</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4886,19 +4899,19 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.12317</cdr:x>
-      <cdr:y>0.09853</cdr:y>
+      <cdr:x>0.09617</cdr:x>
+      <cdr:y>0.09895</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.17187</cdr:x>
-      <cdr:y>0.15203</cdr:y>
+      <cdr:x>0.985</cdr:x>
+      <cdr:y>0.15998</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
-        <cdr:cNvPr id="7" name="TextBox 1">
+        <cdr:cNvPr id="3" name="TextBox 2">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED208C1F-CBEF-294B-AFA9-8485B3CF13DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49EC72CB-1666-7A48-915B-3D97A8D4048E}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -4906,1833 +4919,166 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="899400" y="430719"/>
-          <a:ext cx="355619" cy="233875"/>
+          <a:off x="704369" y="432556"/>
+          <a:ext cx="6510084" cy="266807"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </cdr:spPr>
       <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="b"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
             <a:t>4.2</a:t>
           </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.15771</cdr:x>
-      <cdr:y>0.09286</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.21649</cdr:x>
-      <cdr:y>0.14636</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="8" name="TextBox 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E86AC51-C1BD-8946-8E31-3116DD36BA57}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1151650" y="405957"/>
-          <a:ext cx="429226" cy="233876"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="b"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>43.7</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>        </a:t>
           </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.21017</cdr:x>
-      <cdr:y>0.10428</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.25887</cdr:x>
-      <cdr:y>0.15779</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="9" name="TextBox 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A33CECC-3427-0147-ACA5-5CCFC5639ED3}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1539765" y="459535"/>
-          <a:ext cx="356768" cy="235762"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="r"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>44</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>       </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
             <a:t>3.5</a:t>
           </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.24404</cdr:x>
-      <cdr:y>0.10263</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.29274</cdr:x>
-      <cdr:y>0.15613</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="10" name="TextBox 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6189B430-DE99-5D43-A056-48927A3036C5}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1787926" y="452237"/>
-          <a:ext cx="356768" cy="235762"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="r"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
             <a:t>1.8</a:t>
           </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.28887</cdr:x>
-      <cdr:y>0.10263</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.33757</cdr:x>
-      <cdr:y>0.15613</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="11" name="TextBox 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE186221-8DDE-0E49-9BC0-813361083F04}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2116375" y="452237"/>
-          <a:ext cx="356768" cy="235762"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="r"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>       </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
             <a:t>4.1</a:t>
           </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.33271</cdr:x>
-      <cdr:y>0.10263</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.38141</cdr:x>
-      <cdr:y>0.15613</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="12" name="TextBox 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDE23F5E-9A78-424B-8455-B415C5D56725}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2437524" y="452236"/>
-          <a:ext cx="356768" cy="235762"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="r"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
             <a:t>2.9</a:t>
           </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.39647</cdr:x>
-      <cdr:y>0.10263</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.45525</cdr:x>
-      <cdr:y>0.15613</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="20" name="TextBox 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60B6B793-3A89-DB45-B9A1-1915E8EEE810}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2904651" y="452237"/>
-          <a:ext cx="430633" cy="235762"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="r"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>12.5</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>   </a:t>
           </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.45126</cdr:x>
-      <cdr:y>0.10263</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.49996</cdr:x>
-      <cdr:y>0.15613</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="29" name="TextBox 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F549A213-4272-9647-AF2A-6CC3D53D94B5}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3306087" y="452237"/>
-          <a:ext cx="356768" cy="235762"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="r"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>1.6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>12</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>       </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
             <a:t>2.7</a:t>
           </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.56185</cdr:x>
-      <cdr:y>0.10097</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.61054</cdr:x>
-      <cdr:y>0.15447</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="30" name="TextBox 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2F8F1D4-76E7-104C-BB02-D94719EFCB22}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4116260" y="444937"/>
-          <a:ext cx="356768" cy="235762"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="r"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>                           </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
             <a:t>2.4</a:t>
           </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.61664</cdr:x>
-      <cdr:y>0.10263</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.66534</cdr:x>
-      <cdr:y>0.15613</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="31" name="TextBox 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8A15881-8549-144A-BE3E-70CF25969727}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4517697" y="452236"/>
-          <a:ext cx="356768" cy="235762"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="r"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>          </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
             <a:t>2.4</a:t>
           </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.67841</cdr:x>
-      <cdr:y>0.10263</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.73719</cdr:x>
-      <cdr:y>0.15613</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="32" name="TextBox 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64CD38CA-DFF6-4F42-B5CB-69079EB271F7}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4970225" y="452236"/>
-          <a:ext cx="430633" cy="235762"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="r"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>60.5</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>   </a:t>
           </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.72424</cdr:x>
-      <cdr:y>0.10263</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.77293</cdr:x>
-      <cdr:y>0.15613</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="33" name="TextBox 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{808AD5BA-EAC8-0246-9E42-87EE039110A8}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5305973" y="452237"/>
-          <a:ext cx="356768" cy="235762"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="r"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>60</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>                 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
             <a:t>2.1</a:t>
           </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.77206</cdr:x>
-      <cdr:y>0.10263</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.82075</cdr:x>
-      <cdr:y>0.15613</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="34" name="TextBox 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F1EC0B8-041A-FC4C-94A8-FF75C8E3DB74}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5656317" y="452236"/>
-          <a:ext cx="356768" cy="235762"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="r"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>       </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
             <a:t>3.4</a:t>
           </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.84877</cdr:x>
-      <cdr:y>0.10263</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.89747</cdr:x>
-      <cdr:y>0.15613</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="35" name="TextBox 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A86E84DB-E720-3D4C-A85F-C549764D7D9D}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="6218329" y="452237"/>
-          <a:ext cx="356768" cy="235762"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="r"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>         </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>88</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
             <a:t>2.4</a:t>
           </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.80792</cdr:x>
-      <cdr:y>0.10263</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.8667</cdr:x>
-      <cdr:y>0.15613</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="36" name="TextBox 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69F7D5CD-B34D-134A-8166-0EEC97EDA352}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5919076" y="452237"/>
-          <a:ext cx="430633" cy="235762"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="r"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>88.3</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>      </a:t>
           </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.87866</cdr:x>
-      <cdr:y>0.10263</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.93744</cdr:x>
-      <cdr:y>0.15613</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="37" name="TextBox 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88065297-75AB-8645-99E4-3851ABA5406E}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="6437295" y="452237"/>
-          <a:ext cx="430633" cy="235762"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="r"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>16.4</a:t>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>16</a:t>
           </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.93146</cdr:x>
-      <cdr:y>0.10097</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.99024</cdr:x>
-      <cdr:y>0.15447</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="38" name="TextBox 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88065297-75AB-8645-99E4-3851ABA5406E}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="6824133" y="444938"/>
-          <a:ext cx="430633" cy="235762"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="r"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>23.3</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>       </a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>23</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="900"/>
         </a:p>
       </cdr:txBody>
     </cdr:sp>
@@ -8771,7 +7117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F12" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G25" zoomScale="158" zoomScaleNormal="119" workbookViewId="0">
       <selection activeCell="O60" sqref="O60"/>
     </sheetView>
   </sheetViews>

--- a/paper/data/regular/8node-final-pic.xlsx
+++ b/paper/data/regular/8node-final-pic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/Library/Mobile Documents/com~apple~CloudDocs/C:C++ project/numalloc/paper/data/regular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FE9E3A-15D9-3D46-9EB4-CF9053FD9990}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD8A42B-244B-7246-AAC0-9E48EBC0AE64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4842,7 +4842,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>2.22a</a:t>
+            <a:t>2.22</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -7117,7 +7117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G25" zoomScale="158" zoomScaleNormal="119" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F11" zoomScale="158" zoomScaleNormal="119" workbookViewId="0">
       <selection activeCell="O60" sqref="O60"/>
     </sheetView>
   </sheetViews>

--- a/paper/data/regular/8node-final-pic.xlsx
+++ b/paper/data/regular/8node-final-pic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/Library/Mobile Documents/com~apple~CloudDocs/C:C++ project/numalloc/paper/data/regular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD8A42B-244B-7246-AAC0-9E48EBC0AE64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96ACB55B-3B58-E540-AD33-DB362D79D78F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="49">
   <si>
     <t>pthread</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>NUMAlloc</t>
+  </si>
+  <si>
+    <t>SQLite3</t>
   </si>
 </sst>
 </file>
@@ -506,22 +509,22 @@
                   <c:v>Aget</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Apache</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Memcached</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>MySQL</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>Pbzip2</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>Pfscan</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>SQLite</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Apache</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Memcached</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>MySQL</c:v>
+                  <c:v>SQLite3</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>AVERAGE</c:v>
@@ -575,22 +578,22 @@
                   <c:v>1.0507177041148326</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>1.025497512437811</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0046522781774578</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0280018468725387</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>0.70641389075741823</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>0.9888646142756361</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>0.9821656261902002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.025497512437811</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.0046522781774578</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.0280018468725387</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.8739486836724254</c:v>
@@ -674,22 +677,22 @@
                   <c:v>Aget</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Apache</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Memcached</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>MySQL</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>Pbzip2</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>Pfscan</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>SQLite</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Apache</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Memcached</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>MySQL</c:v>
+                  <c:v>SQLite3</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>AVERAGE</c:v>
@@ -743,25 +746,25 @@
                   <c:v>1.2162679425837322</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>1.0890796019900497</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.004556354916067</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.99934816263342297</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>0.90042523034721123</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>1.0015988220644276</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>0.97416748083260196</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.0890796019900497</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.004556354916067</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.99934816263342297</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.99364271754090305</c:v>
+                  <c:v>0.99364271754090294</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -840,22 +843,22 @@
                   <c:v>Aget</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Apache</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Memcached</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>MySQL</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>Pbzip2</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>Pfscan</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>SQLite</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Apache</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Memcached</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>MySQL</c:v>
+                  <c:v>SQLite3</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>AVERAGE</c:v>
@@ -909,25 +912,25 @@
                   <c:v>1.3435406698564594</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>0.9552238805970148</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0038369304556354</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.98631141530188204</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>0.90343727839781196</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>1.0002903843493085</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>0.98402026859196212</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.9552238805970148</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.0038369304556354</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.98631141530188204</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0721756328687597</c:v>
+                  <c:v>1.0721756328687599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1008,22 +1011,22 @@
                   <c:v>Aget</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Apache</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Memcached</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>MySQL</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>Pbzip2</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>Pfscan</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>SQLite</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Apache</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Memcached</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>MySQL</c:v>
+                  <c:v>SQLite3</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>AVERAGE</c:v>
@@ -1077,25 +1080,25 @@
                   <c:v>1.0928229665071771</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>0.97701492537313439</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0050359712230215</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.98997800048887807</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>0.92824238115829316</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>1.0019339597663941</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>0.98269552401927518</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.97701492537313439</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.0050359712230215</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.98997800048887807</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.98962264480738238</c:v>
+                  <c:v>0.98962264480738216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1176,22 +1179,22 @@
                   <c:v>Aget</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Apache</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Memcached</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>MySQL</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>Pbzip2</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>Pfscan</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>SQLite</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Apache</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Memcached</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>MySQL</c:v>
+                  <c:v>SQLite3</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>AVERAGE</c:v>
@@ -1245,22 +1248,22 @@
                   <c:v>1.4622009569377992</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>0.97815920398009948</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0011990407673861</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.99350878622450356</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>1.0060240961012015</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>1.0002186423335968</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>1.005431452748017</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.97815920398009948</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.0011990407673861</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.99350878622450356</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1.0202464593991571</c:v>
@@ -1346,22 +1349,22 @@
                   <c:v>Aget</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Apache</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Memcached</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>MySQL</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>Pbzip2</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>Pfscan</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>SQLite</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Apache</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Memcached</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>MySQL</c:v>
+                  <c:v>SQLite3</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>AVERAGE</c:v>
@@ -1415,25 +1418,25 @@
                   <c:v>1.5770334928229666</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>0.98880597014925364</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.000959232613909</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>1.1844436568129775</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>0.99992996612751961</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>1.0720826640613357</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.98880597014925364</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.000959232613909</c:v>
-                </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.1164280469549694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1490,7 +1493,7 @@
         <c:axId val="2124026792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.8"/>
+          <c:max val="1.6"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1626,10 +1629,10 @@
                   <c:v>cache-thrash</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>larson</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>threadtest</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>larson</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>AVERAGE</c:v>
@@ -1641,10 +1644,10 @@
                   <c:v>cache-thrash</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>larson</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>threadtest</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>larson</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>AVERAGE</c:v>
@@ -1665,10 +1668,10 @@
                   <c:v>0.99069083782459577</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.57483319121704868</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.19744027303754266</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.57483319121704868</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.47888853234667494</c:v>
@@ -1680,13 +1683,13 @@
                   <c:v>0.77746478873239433</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.44395875172476118</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>4.7430324735361802E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.44395875172476118</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.33657966347548551</c:v>
+                  <c:v>0.33657966347548601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1734,10 +1737,10 @@
                   <c:v>cache-thrash</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>larson</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>threadtest</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>larson</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>AVERAGE</c:v>
@@ -1749,10 +1752,10 @@
                   <c:v>cache-thrash</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>larson</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>threadtest</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>larson</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>AVERAGE</c:v>
@@ -1773,10 +1776,10 @@
                   <c:v>43.761391474767265</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.50585890369381215</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1.8575085324232081</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.50585890369381215</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>12.58951917242476</c:v>
@@ -1788,10 +1791,10 @@
                   <c:v>60.553051643192482</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.64030734177545867</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>2.1782152902071079</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.64030734177545867</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>16.450565918502384</c:v>
@@ -1839,10 +1842,10 @@
                   <c:v>cache-thrash</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>larson</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>threadtest</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>larson</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>AVERAGE</c:v>
@@ -1854,10 +1857,10 @@
                   <c:v>cache-thrash</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>larson</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>threadtest</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>larson</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>AVERAGE</c:v>
@@ -1878,10 +1881,10 @@
                   <c:v>3.5061244487996079</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>2.996431201217133</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>4.0843003412969283</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.996431201217133</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.7464573482717212</c:v>
@@ -1893,10 +1896,10 @@
                   <c:v>1.0356807511737087</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>88.324689207944814</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>3.4378675530554847</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>88.324689207944814</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>23.30593447067319</c:v>
@@ -1947,10 +1950,10 @@
                   <c:v>cache-thrash</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>larson</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>threadtest</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>larson</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>AVERAGE</c:v>
@@ -1962,10 +1965,10 @@
                   <c:v>cache-thrash</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>larson</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>threadtest</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>larson</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>AVERAGE</c:v>
@@ -1986,13 +1989,13 @@
                   <c:v>1.2155805973542382</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.74153286948900154</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.75836177474402722</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.74153286948900154</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.71234991166606554</c:v>
+                  <c:v>0.71234991166606543</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2.4818383980780312</c:v>
@@ -2001,10 +2004,10 @@
                   <c:v>1.056338028169014</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.97112732025328752</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.1038097673229353</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.97112732025328752</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1.1532783784558172</c:v>
@@ -2057,10 +2060,10 @@
                   <c:v>cache-thrash</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>larson</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>threadtest</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>larson</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>AVERAGE</c:v>
@@ -2072,10 +2075,10 @@
                   <c:v>cache-thrash</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>larson</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>threadtest</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>larson</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>AVERAGE</c:v>
@@ -2096,10 +2099,10 @@
                   <c:v>0.94757471827535522</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.98495993453181174</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1.1467576791808873</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.98495993453181174</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.040938341979748</c:v>
@@ -2111,10 +2114,10 @@
                   <c:v>1.015962441314554</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.90816614196353451</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1.0154691894656098</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.90816614196353451</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.993980243702135</c:v>
@@ -2154,14 +2157,9 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
-            <c:idx val="3"/>
+            <c:idx val="2"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-CF58-084E-BCC6-09B643DB729D}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -2175,10 +2173,10 @@
                   <c:v>cache-thrash</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>larson</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>threadtest</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>larson</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>AVERAGE</c:v>
@@ -2190,10 +2188,10 @@
                   <c:v>cache-thrash</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>larson</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>threadtest</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>larson</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>AVERAGE</c:v>
@@ -2214,13 +2212,13 @@
                   <c:v>1.0073493385595296</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.6888449591454335</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.77832764505119456</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.6888449591454335</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.9024615636451756</c:v>
+                  <c:v>0.90246156364517571</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>6.5604151055417587E-2</c:v>
@@ -2229,10 +2227,10 @@
                   <c:v>1.0338028169014084</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>2.4302373229862808</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1.0329838915878291</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.4302373229862808</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1.1406570456327341</c:v>
@@ -2427,6 +2425,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15491118141273627"/>
+          <c:y val="4.3612464553315647E-2"/>
+          <c:w val="0.6901776371745274"/>
+          <c:h val="6.056506010251967E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4583,8 +4591,8 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>419387</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>54241</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>10815</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4744,7 +4752,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>237779</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>35005</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="410497" cy="264560"/>
@@ -4807,11 +4815,11 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.3599</cdr:x>
-      <cdr:y>0.11</cdr:y>
+      <cdr:y>0.03143</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>0.42268</cdr:x>
-      <cdr:y>0.17293</cdr:y>
+      <cdr:y>0.09436</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -4826,8 +4834,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2637000" y="408933"/>
-          <a:ext cx="459988" cy="233946"/>
+          <a:off x="2656887" y="115752"/>
+          <a:ext cx="463460" cy="231765"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4850,12 +4858,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.30022</cdr:x>
-      <cdr:y>0.10993</cdr:y>
+      <cdr:x>0.29804</cdr:x>
+      <cdr:y>0.03136</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.363</cdr:x>
-      <cdr:y>0.17286</cdr:y>
+      <cdr:x>0.36082</cdr:x>
+      <cdr:y>0.09429</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -4870,8 +4878,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2199722" y="408669"/>
-          <a:ext cx="459987" cy="233946"/>
+          <a:off x="2200236" y="115494"/>
+          <a:ext cx="463460" cy="231765"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4899,12 +4907,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.09617</cdr:x>
-      <cdr:y>0.09895</cdr:y>
+      <cdr:x>0.09322</cdr:x>
+      <cdr:y>0.11329</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.985</cdr:x>
-      <cdr:y>0.15998</cdr:y>
+      <cdr:x>0.98205</cdr:x>
+      <cdr:y>0.17432</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -4919,8 +4927,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="704369" y="432556"/>
-          <a:ext cx="6510084" cy="266807"/>
+          <a:off x="685437" y="428861"/>
+          <a:ext cx="6535636" cy="231036"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4948,11 +4956,27 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>3.5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
             <a:t>       </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>3.5</a:t>
+            <a:t>2.9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>1.6</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
@@ -4972,22 +4996,6 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>        </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>2.9</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>   </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>1.6</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
             <a:t>      </a:t>
           </a:r>
           <a:r>
@@ -5004,7 +5012,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>                           </a:t>
+            <a:t>                            </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
@@ -5020,7 +5028,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>   </a:t>
+            <a:t>  </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
@@ -5028,7 +5036,23 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>                 </a:t>
+            <a:t>                     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>88</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>2.4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>    </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
@@ -5036,7 +5060,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>       </a:t>
+            <a:t>         </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
@@ -5044,27 +5068,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>         </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>88</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>   </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="800" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>2.4</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>      </a:t>
+            <a:t>     </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
@@ -7117,8 +7121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F11" zoomScale="158" zoomScaleNormal="119" workbookViewId="0">
-      <selection activeCell="O60" sqref="O60"/>
+    <sheetView tabSelected="1" topLeftCell="H31" zoomScale="150" zoomScaleNormal="119" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8205,245 +8209,235 @@
         <v>0.95017254949446028</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="19" customFormat="1">
-      <c r="A42" s="18"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-    </row>
     <row r="43" spans="1:8">
       <c r="A43" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B43" s="1">
-        <f t="shared" ref="B43:B49" si="7">B14/B14</f>
+        <f t="shared" ref="B43" si="7">B14/B14</f>
         <v>1</v>
       </c>
       <c r="C43" s="4">
-        <f t="shared" ref="C43:C49" si="8">C14/B14</f>
+        <f t="shared" ref="C43" si="8">C14/B14</f>
         <v>1.0507177041148326</v>
       </c>
       <c r="D43" s="4">
-        <f t="shared" ref="D43:D49" si="9">D14/B14</f>
+        <f t="shared" ref="D43" si="9">D14/B14</f>
         <v>1.2162679425837322</v>
       </c>
       <c r="E43" s="4">
-        <f t="shared" ref="E43:E49" si="10">E14/B14</f>
+        <f t="shared" ref="E43" si="10">E14/B14</f>
         <v>1.3435406698564594</v>
       </c>
       <c r="F43" s="4">
-        <f t="shared" ref="F43:F49" si="11">F14/B14</f>
+        <f t="shared" ref="F43" si="11">F14/B14</f>
         <v>1.0928229665071771</v>
       </c>
       <c r="G43" s="4">
-        <f t="shared" ref="G43:G49" si="12">G14/B14</f>
+        <f t="shared" ref="G43" si="12">G14/B14</f>
         <v>1.4622009569377992</v>
       </c>
       <c r="H43" s="4">
-        <f t="shared" ref="H43:H49" si="13">H14/B14</f>
+        <f t="shared" ref="H43" si="13">H14/B14</f>
         <v>1.5770334928229666</v>
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="1">
+        <f>B18/B18</f>
+        <v>1</v>
+      </c>
+      <c r="C44" s="4">
+        <f>C18/B18</f>
+        <v>1.025497512437811</v>
+      </c>
+      <c r="D44" s="4">
+        <f>D18/B18</f>
+        <v>1.0890796019900497</v>
+      </c>
+      <c r="E44" s="4">
+        <f>E18/B18</f>
+        <v>0.9552238805970148</v>
+      </c>
+      <c r="F44" s="4">
+        <f>F18/B18</f>
+        <v>0.97701492537313439</v>
+      </c>
+      <c r="G44" s="4">
+        <f>G18/B18</f>
+        <v>0.97815920398009948</v>
+      </c>
+      <c r="H44" s="4">
+        <f>H18/B18</f>
+        <v>0.98880597014925364</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="1">
+        <f>B19/B19</f>
+        <v>1</v>
+      </c>
+      <c r="C45" s="4">
+        <f>C19/B19</f>
+        <v>1.0046522781774578</v>
+      </c>
+      <c r="D45" s="4">
+        <f>D19/B19</f>
+        <v>1.004556354916067</v>
+      </c>
+      <c r="E45" s="4">
+        <f>E19/B19</f>
+        <v>1.0038369304556354</v>
+      </c>
+      <c r="F45" s="4">
+        <f>F19/B19</f>
+        <v>1.0050359712230215</v>
+      </c>
+      <c r="G45" s="4">
+        <f>G19/B19</f>
+        <v>1.0011990407673861</v>
+      </c>
+      <c r="H45" s="4">
+        <f>H19/B19</f>
+        <v>1.000959232613909</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="19" customFormat="1">
+      <c r="A46" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="1">
+        <f>B20/B20</f>
+        <v>1</v>
+      </c>
+      <c r="C46" s="4">
+        <f>C20/B20</f>
+        <v>1.0280018468725387</v>
+      </c>
+      <c r="D46" s="4">
+        <f>D20/B20</f>
+        <v>0.99934816263342297</v>
+      </c>
+      <c r="E46" s="4">
+        <f>E20/B20</f>
+        <v>0.98631141530188204</v>
+      </c>
+      <c r="F46" s="4">
+        <f>F20/B20</f>
+        <v>0.98997800048887807</v>
+      </c>
+      <c r="G46" s="4">
+        <f>G20/B20</f>
+        <v>0.99350878622450356</v>
+      </c>
+      <c r="H46" s="4" t="e">
+        <f>H20/B20</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="1">
-        <f t="shared" si="7"/>
+      <c r="B47" s="1">
+        <f>B15/B15</f>
         <v>1</v>
       </c>
-      <c r="C44" s="4">
-        <f t="shared" si="8"/>
+      <c r="C47" s="4">
+        <f>C15/B15</f>
         <v>0.70641389075741823</v>
       </c>
-      <c r="D44" s="4">
-        <f t="shared" si="9"/>
+      <c r="D47" s="4">
+        <f>D15/B15</f>
         <v>0.90042523034721123</v>
       </c>
-      <c r="E44" s="4">
-        <f t="shared" si="10"/>
+      <c r="E47" s="4">
+        <f>E15/B15</f>
         <v>0.90343727839781196</v>
       </c>
-      <c r="F44" s="4">
-        <f t="shared" si="11"/>
+      <c r="F47" s="4">
+        <f>F15/B15</f>
         <v>0.92824238115829316</v>
       </c>
-      <c r="G44" s="4">
-        <f t="shared" si="12"/>
+      <c r="G47" s="4">
+        <f>G15/B15</f>
         <v>1.0060240961012015</v>
       </c>
-      <c r="H44" s="4">
-        <f t="shared" si="13"/>
+      <c r="H47" s="4">
+        <f>H15/B15</f>
         <v>1.1844436568129775</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="7" t="s">
+    <row r="48" spans="1:8">
+      <c r="A48" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="1">
-        <f t="shared" si="7"/>
+      <c r="B48" s="1">
+        <f>B16/B16</f>
         <v>1</v>
       </c>
-      <c r="C45" s="4">
-        <f t="shared" si="8"/>
+      <c r="C48" s="4">
+        <f>C16/B16</f>
         <v>0.9888646142756361</v>
       </c>
-      <c r="D45" s="4">
-        <f t="shared" si="9"/>
+      <c r="D48" s="4">
+        <f>D16/B16</f>
         <v>1.0015988220644276</v>
       </c>
-      <c r="E45" s="4">
-        <f t="shared" si="10"/>
+      <c r="E48" s="4">
+        <f>E16/B16</f>
         <v>1.0002903843493085</v>
       </c>
-      <c r="F45" s="4">
-        <f t="shared" si="11"/>
+      <c r="F48" s="4">
+        <f>F16/B16</f>
         <v>1.0019339597663941</v>
       </c>
-      <c r="G45" s="4">
-        <f t="shared" si="12"/>
+      <c r="G48" s="4">
+        <f>G16/B16</f>
         <v>1.0002186423335968</v>
       </c>
-      <c r="H45" s="4">
-        <f t="shared" si="13"/>
+      <c r="H48" s="4">
+        <f>H16/B16</f>
         <v>0.99992996612751961</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B46" s="1">
-        <f t="shared" si="7"/>
+    <row r="49" spans="1:16">
+      <c r="A49" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <f>B17/B17</f>
         <v>1</v>
       </c>
-      <c r="C46" s="4">
-        <f t="shared" si="8"/>
+      <c r="C49" s="4">
+        <f>C17/B17</f>
         <v>0.9821656261902002</v>
       </c>
-      <c r="D46" s="4">
-        <f t="shared" si="9"/>
+      <c r="D49" s="4">
+        <f>D17/B17</f>
         <v>0.97416748083260196</v>
       </c>
-      <c r="E46" s="4">
-        <f t="shared" si="10"/>
+      <c r="E49" s="4">
+        <f>E17/B17</f>
         <v>0.98402026859196212</v>
       </c>
-      <c r="F46" s="4">
-        <f t="shared" si="11"/>
+      <c r="F49" s="4">
+        <f>F17/B17</f>
         <v>0.98269552401927518</v>
       </c>
-      <c r="G46" s="4">
-        <f t="shared" si="12"/>
+      <c r="G49" s="4">
+        <f>G17/B17</f>
         <v>1.005431452748017</v>
       </c>
-      <c r="H46" s="4">
-        <f t="shared" si="13"/>
+      <c r="H49" s="4">
+        <f>H17/B17</f>
         <v>1.0720826640613357</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B47" s="1">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="C47" s="4">
-        <f t="shared" si="8"/>
-        <v>1.025497512437811</v>
-      </c>
-      <c r="D47" s="4">
-        <f t="shared" si="9"/>
-        <v>1.0890796019900497</v>
-      </c>
-      <c r="E47" s="4">
-        <f t="shared" si="10"/>
-        <v>0.9552238805970148</v>
-      </c>
-      <c r="F47" s="4">
-        <f t="shared" si="11"/>
-        <v>0.97701492537313439</v>
-      </c>
-      <c r="G47" s="4">
-        <f t="shared" si="12"/>
-        <v>0.97815920398009948</v>
-      </c>
-      <c r="H47" s="4">
-        <f t="shared" si="13"/>
-        <v>0.98880597014925364</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B48" s="1">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="C48" s="4">
-        <f t="shared" si="8"/>
-        <v>1.0046522781774578</v>
-      </c>
-      <c r="D48" s="4">
-        <f t="shared" si="9"/>
-        <v>1.004556354916067</v>
-      </c>
-      <c r="E48" s="4">
-        <f t="shared" si="10"/>
-        <v>1.0038369304556354</v>
-      </c>
-      <c r="F48" s="4">
-        <f t="shared" si="11"/>
-        <v>1.0050359712230215</v>
-      </c>
-      <c r="G48" s="4">
-        <f t="shared" si="12"/>
-        <v>1.0011990407673861</v>
-      </c>
-      <c r="H48" s="4">
-        <f t="shared" si="13"/>
-        <v>1.000959232613909</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" s="19" customFormat="1">
-      <c r="A49" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B49" s="1">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="C49" s="4">
-        <f t="shared" si="8"/>
-        <v>1.0280018468725387</v>
-      </c>
-      <c r="D49" s="4">
-        <f t="shared" si="9"/>
-        <v>0.99934816263342297</v>
-      </c>
-      <c r="E49" s="4">
-        <f t="shared" si="10"/>
-        <v>0.98631141530188204</v>
-      </c>
-      <c r="F49" s="4">
-        <f t="shared" si="11"/>
-        <v>0.98997800048887807</v>
-      </c>
-      <c r="G49" s="4">
-        <f t="shared" si="12"/>
-        <v>0.99350878622450356</v>
-      </c>
-      <c r="H49" s="4" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
       </c>
     </row>
     <row r="50" spans="1:16" s="19" customFormat="1">
@@ -8470,23 +8464,23 @@
       </c>
       <c r="D51" s="21">
         <f>SUM(D30:D49)/19</f>
-        <v>0.99364271754090305</v>
+        <v>0.99364271754090294</v>
       </c>
       <c r="E51" s="21">
         <f>SUM(E30:E49)/19</f>
-        <v>1.0721756328687597</v>
+        <v>1.0721756328687599</v>
       </c>
       <c r="F51" s="21">
         <f>SUM(F30:F49)/19</f>
-        <v>0.98962264480738238</v>
+        <v>0.98962264480738216</v>
       </c>
       <c r="G51" s="21">
         <f>SUM(G30:G49)/19</f>
         <v>1.0202464593991571</v>
       </c>
-      <c r="H51" s="21">
+      <c r="H51" s="21" t="e">
         <f>SUM(H30:H48)/18</f>
-        <v>1.1164280469549694</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="52" spans="1:16" s="19" customFormat="1">
@@ -8569,54 +8563,54 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B55" s="1">
         <v>1</v>
       </c>
       <c r="C55" s="4">
-        <v>0.19744027303754266</v>
+        <v>0.57483319121704868</v>
       </c>
       <c r="D55" s="4">
-        <v>1.8575085324232081</v>
+        <v>0.50585890369381215</v>
       </c>
       <c r="E55" s="4">
-        <v>4.0843003412969283</v>
+        <v>2.996431201217133</v>
       </c>
       <c r="F55" s="4">
-        <v>0.75836177474402722</v>
+        <v>0.74153286948900154</v>
       </c>
       <c r="G55" s="4">
-        <v>1.1467576791808873</v>
+        <v>0.98495993453181174</v>
       </c>
       <c r="H55" s="4">
-        <v>0.77832764505119456</v>
+        <v>1.6888449591454335</v>
       </c>
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B56" s="1">
         <v>1</v>
       </c>
       <c r="C56" s="4">
-        <v>0.57483319121704868</v>
+        <v>0.19744027303754266</v>
       </c>
       <c r="D56" s="4">
-        <v>0.50585890369381215</v>
+        <v>1.8575085324232081</v>
       </c>
       <c r="E56" s="4">
-        <v>2.996431201217133</v>
+        <v>4.0843003412969283</v>
       </c>
       <c r="F56" s="4">
-        <v>0.74153286948900154</v>
+        <v>0.75836177474402722</v>
       </c>
       <c r="G56" s="4">
-        <v>0.98495993453181174</v>
+        <v>1.1467576791808873</v>
       </c>
       <c r="H56" s="4">
-        <v>1.6888449591454335</v>
+        <v>0.77832764505119456</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -8628,20 +8622,20 @@
         <v>1</v>
       </c>
       <c r="C57" s="1">
-        <f>SUM(C53:C56)/4</f>
+        <f t="shared" ref="C57:H57" si="14">SUM(C53:C56)/4</f>
         <v>0.47888853234667494</v>
       </c>
       <c r="D57" s="1">
-        <f>SUM(D53:D56)/4</f>
+        <f t="shared" si="14"/>
         <v>12.58951917242476</v>
       </c>
       <c r="E57" s="1">
-        <f t="shared" ref="E57:H57" si="14">SUM(E53:E56)/4</f>
+        <f t="shared" si="14"/>
         <v>2.7464573482717212</v>
       </c>
       <c r="F57" s="1">
         <f t="shared" si="14"/>
-        <v>0.71234991166606554</v>
+        <v>0.71234991166606543</v>
       </c>
       <c r="G57" s="1">
         <f t="shared" si="14"/>
@@ -8649,18 +8643,8 @@
       </c>
       <c r="H57" s="1">
         <f t="shared" si="14"/>
-        <v>0.9024615636451756</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16">
-      <c r="A58" s="11"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
+        <v>0.90246156364517571</v>
+      </c>
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="4" t="s">
@@ -8716,54 +8700,54 @@
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
       <c r="C61">
-        <v>4.7430324735361802E-2</v>
+        <v>0.44395875172476118</v>
       </c>
       <c r="D61">
-        <v>2.1782152902071079</v>
+        <v>0.64030734177545867</v>
       </c>
       <c r="E61">
-        <v>3.4378675530554847</v>
+        <v>88.324689207944814</v>
       </c>
       <c r="F61">
-        <v>0.1038097673229353</v>
+        <v>0.97112732025328752</v>
       </c>
       <c r="G61">
-        <v>1.0154691894656098</v>
+        <v>0.90816614196353451</v>
       </c>
       <c r="H61">
-        <v>1.0329838915878291</v>
+        <v>2.4302373229862808</v>
       </c>
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
       <c r="C62">
-        <v>0.44395875172476118</v>
+        <v>4.7430324735361802E-2</v>
       </c>
       <c r="D62">
-        <v>0.64030734177545867</v>
+        <v>2.1782152902071079</v>
       </c>
       <c r="E62">
-        <v>88.324689207944814</v>
+        <v>3.4378675530554847</v>
       </c>
       <c r="F62">
-        <v>0.97112732025328752</v>
+        <v>0.1038097673229353</v>
       </c>
       <c r="G62">
-        <v>0.90816614196353451</v>
+        <v>1.0154691894656098</v>
       </c>
       <c r="H62">
-        <v>2.4302373229862808</v>
+        <v>1.0329838915878291</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -8774,7 +8758,7 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <v>0.33657966347548551</v>
+        <v>0.33657966347548601</v>
       </c>
       <c r="D63">
         <v>16.450565918502384</v>

--- a/paper/data/regular/8node-final-pic.xlsx
+++ b/paper/data/regular/8node-final-pic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/Library/Mobile Documents/com~apple~CloudDocs/C:C++ project/numalloc/paper/data/regular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96ACB55B-3B58-E540-AD33-DB362D79D78F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5C39BF-A7B2-5C4C-A090-33AB64263390}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4940,7 +4940,7 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>        </a:t>
+            <a:t>         </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
@@ -4956,7 +4956,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>        </a:t>
+            <a:t>       </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
@@ -5012,7 +5012,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>                            </a:t>
+            <a:t>                           </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
@@ -5028,7 +5028,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>  </a:t>
+            <a:t>   </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
@@ -5060,7 +5060,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>         </a:t>
+            <a:t>        </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
@@ -7121,7 +7121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H31" zoomScale="150" zoomScaleNormal="119" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I27" zoomScale="189" zoomScaleNormal="119" workbookViewId="0">
       <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>

--- a/paper/data/regular/8node-final-pic.xlsx
+++ b/paper/data/regular/8node-final-pic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/Library/Mobile Documents/com~apple~CloudDocs/C:C++ project/numalloc/paper/data/regular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5C39BF-A7B2-5C4C-A090-33AB64263390}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7132FF72-1C7D-6E4E-8883-5AEE98E02389}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -575,7 +575,7 @@
                   <c:v>0.892534963976509</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0507177041148326</c:v>
+                  <c:v>1.0498647081201447</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1.025497512437811</c:v>
@@ -596,7 +596,7 @@
                   <c:v>0.9821656261902002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.8739486836724254</c:v>
+                  <c:v>0.87390378914638922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -743,7 +743,7 @@
                   <c:v>0.95731670400193747</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2162679425837322</c:v>
+                  <c:v>1.0800154619341624</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1.0890796019900497</c:v>
@@ -764,7 +764,7 @@
                   <c:v>0.97416748083260196</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.99364271754090294</c:v>
+                  <c:v>0.98647153434882018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -909,7 +909,7 @@
                   <c:v>0.89737845855784959</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3435406698564594</c:v>
+                  <c:v>1.1151913411905761</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.9552238805970148</c:v>
@@ -930,7 +930,7 @@
                   <c:v>0.98402026859196212</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0721756328687599</c:v>
+                  <c:v>1.0601572471495029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1077,7 +1077,7 @@
                   <c:v>0.90530968093479458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0928229665071771</c:v>
+                  <c:v>1.1623502125671108</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.97701492537313439</c:v>
@@ -1098,7 +1098,7 @@
                   <c:v>0.98269552401927518</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.98962264480738216</c:v>
+                  <c:v>0.99328197354737868</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1245,7 +1245,7 @@
                   <c:v>0.98952594296785135</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4622009569377992</c:v>
+                  <c:v>1.1542327019033474</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.97815920398009948</c:v>
@@ -1266,7 +1266,7 @@
                   <c:v>1.005431452748017</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0202464593991571</c:v>
+                  <c:v>1.0040376038710281</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1415,7 +1415,7 @@
                   <c:v>0.95017254949446028</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.5770334928229666</c:v>
+                  <c:v>1.028604561059538</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.98880597014925364</c:v>
@@ -2160,6 +2160,11 @@
             <c:idx val="2"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-8808-6046-8FC4-BBD187D0C1C2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -7121,8 +7126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I27" zoomScale="189" zoomScaleNormal="119" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="118" zoomScaleNormal="119" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7468,25 +7473,25 @@
         <v>19</v>
       </c>
       <c r="B14" s="4">
-        <v>1.3062499999999999</v>
+        <v>3.2337500001300001</v>
       </c>
       <c r="C14" s="4">
-        <v>1.3725000009999999</v>
+        <v>3.39500000002</v>
       </c>
       <c r="D14" s="4">
-        <v>1.5887500000000001</v>
+        <v>3.4925000001700002</v>
       </c>
       <c r="E14" s="4">
-        <v>1.7549999999999999</v>
+        <v>3.6062499997200002</v>
       </c>
       <c r="F14" s="4">
-        <v>1.4275</v>
+        <v>3.75875000004</v>
       </c>
       <c r="G14" s="4">
-        <v>1.91</v>
+        <v>3.7324999999299999</v>
       </c>
       <c r="H14" s="4">
-        <v>2.06</v>
+        <v>3.3262499994599999</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -7749,24 +7754,9 @@
         <v>58578228</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-    </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8">
@@ -7851,7 +7841,7 @@
         <v>8</v>
       </c>
       <c r="B31" s="1">
-        <f t="shared" ref="B31:B41" si="0">B3/B3</f>
+        <f t="shared" ref="B31:B43" si="0">B3/B3</f>
         <v>1</v>
       </c>
       <c r="C31" s="4">
@@ -8181,7 +8171,7 @@
         <v>18</v>
       </c>
       <c r="B41" s="1">
-        <f t="shared" si="0"/>
+        <f>B13/B13</f>
         <v>1</v>
       </c>
       <c r="C41" s="4">
@@ -8214,32 +8204,32 @@
         <v>32</v>
       </c>
       <c r="B43" s="1">
-        <f t="shared" ref="B43" si="7">B14/B14</f>
+        <f>B14/B14</f>
         <v>1</v>
       </c>
       <c r="C43" s="4">
-        <f t="shared" ref="C43" si="8">C14/B14</f>
-        <v>1.0507177041148326</v>
+        <f>C14/B14</f>
+        <v>1.0498647081201447</v>
       </c>
       <c r="D43" s="4">
-        <f t="shared" ref="D43" si="9">D14/B14</f>
-        <v>1.2162679425837322</v>
+        <f>D14/B14</f>
+        <v>1.0800154619341624</v>
       </c>
       <c r="E43" s="4">
-        <f t="shared" ref="E43" si="10">E14/B14</f>
-        <v>1.3435406698564594</v>
+        <f>E14/B14</f>
+        <v>1.1151913411905761</v>
       </c>
       <c r="F43" s="4">
-        <f t="shared" ref="F43" si="11">F14/B14</f>
-        <v>1.0928229665071771</v>
+        <f>F14/B14</f>
+        <v>1.1623502125671108</v>
       </c>
       <c r="G43" s="4">
-        <f t="shared" ref="G43" si="12">G14/B14</f>
-        <v>1.4622009569377992</v>
+        <f>G14/B14</f>
+        <v>1.1542327019033474</v>
       </c>
       <c r="H43" s="4">
-        <f t="shared" ref="H43" si="13">H14/B14</f>
-        <v>1.5770334928229666</v>
+        <f>H14/B14</f>
+        <v>1.028604561059538</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -8460,23 +8450,23 @@
       </c>
       <c r="C51" s="21">
         <f>SUM(C30:C49)/19</f>
-        <v>0.8739486836724254</v>
+        <v>0.87390378914638922</v>
       </c>
       <c r="D51" s="21">
         <f>SUM(D30:D49)/19</f>
-        <v>0.99364271754090294</v>
+        <v>0.98647153434882018</v>
       </c>
       <c r="E51" s="21">
         <f>SUM(E30:E49)/19</f>
-        <v>1.0721756328687599</v>
+        <v>1.0601572471495029</v>
       </c>
       <c r="F51" s="21">
         <f>SUM(F30:F49)/19</f>
-        <v>0.98962264480738216</v>
+        <v>0.99328197354737868</v>
       </c>
       <c r="G51" s="21">
         <f>SUM(G30:G49)/19</f>
-        <v>1.0202464593991571</v>
+        <v>1.0040376038710281</v>
       </c>
       <c r="H51" s="21" t="e">
         <f>SUM(H30:H48)/18</f>
@@ -8622,27 +8612,27 @@
         <v>1</v>
       </c>
       <c r="C57" s="1">
-        <f t="shared" ref="C57:H57" si="14">SUM(C53:C56)/4</f>
+        <f t="shared" ref="C57:H57" si="7">SUM(C53:C56)/4</f>
         <v>0.47888853234667494</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>12.58951917242476</v>
       </c>
       <c r="E57" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>2.7464573482717212</v>
       </c>
       <c r="F57" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0.71234991166606543</v>
       </c>
       <c r="G57" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1.040938341979748</v>
       </c>
       <c r="H57" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0.90246156364517571</v>
       </c>
     </row>
@@ -10078,19 +10068,19 @@
         <v>2.904351480278947</v>
       </c>
       <c r="D112" s="4">
-        <f t="shared" ref="D112:G112" si="15">SUM(D93:D111)/19</f>
+        <f t="shared" ref="D112:G112" si="8">SUM(D93:D111)/19</f>
         <v>1.1174623462947371</v>
       </c>
       <c r="E112" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>1.1530452620684211</v>
       </c>
       <c r="F112" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>3.7991501938684205</v>
       </c>
       <c r="G112" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>0.98008090530526326</v>
       </c>
       <c r="H112" s="4">
@@ -10235,27 +10225,27 @@
         <v>1</v>
       </c>
       <c r="C118" s="1">
-        <f t="shared" ref="C118:H118" si="16">SUM(C114:C117)/4</f>
+        <f t="shared" ref="C118:H118" si="9">SUM(C114:C117)/4</f>
         <v>5.3574998009999995</v>
       </c>
       <c r="D118" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>0.57792230622499996</v>
       </c>
       <c r="E118" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>0.693669096875</v>
       </c>
       <c r="F118" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>9.4151598267499992</v>
       </c>
       <c r="G118" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>1.0144013049</v>
       </c>
       <c r="H118" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>25.73482796875</v>
       </c>
     </row>

--- a/paper/data/regular/8node-final-pic.xlsx
+++ b/paper/data/regular/8node-final-pic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/Library/Mobile Documents/com~apple~CloudDocs/C:C++ project/numalloc/paper/data/regular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7132FF72-1C7D-6E4E-8883-5AEE98E02389}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D2C7A2-AA53-EB4C-82D5-3E18A7061C5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1505,23 +1505,23 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200">
+                  <a:defRPr sz="1000">
                     <a:latin typeface="Times New Roman"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
                     <a:latin typeface="Times New Roman"/>
                   </a:rPr>
                   <a:t>Normalized</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" baseline="0">
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" baseline="0">
                     <a:latin typeface="Times New Roman"/>
                   </a:rPr>
                   <a:t> Runtime</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
                   <a:latin typeface="Times New Roman"/>
                 </a:endParaRPr>
               </a:p>
@@ -1531,8 +1531,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="7.5311948614242303E-3"/>
-              <c:y val="0.211897455914935"/>
+              <c:x val="1.2675233432006208E-2"/>
+              <c:y val="4.5887527947895412E-2"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2351,8 +2351,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.17160820295114521"/>
-              <c:y val="0.92440973377113866"/>
+              <c:x val="0.14925813802343327"/>
+              <c:y val="0.8393617021276597"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2366,7 +2366,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100"/>
+              <a:defRPr sz="1000"/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2394,18 +2394,18 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr sz="1100"/>
+                  <a:defRPr sz="1000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:rPr lang="en-US" sz="1000"/>
                   <a:t>Normalized Runtime</a:t>
                 </a:r>
               </a:p>
               <a:p>
                 <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr sz="1100"/>
+                  <a:defRPr sz="1000"/>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN" sz="1100"/>
+                <a:endParaRPr lang="zh-CN" sz="1000"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2413,8 +2413,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="3.0373651956588723E-2"/>
-              <c:y val="0.2789748237562284"/>
+              <c:x val="2.0058288720175566E-2"/>
+              <c:y val="0.14709930188347681"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2446,7 +2446,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1100"/>
+            <a:defRPr sz="1000"/>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -4559,9 +4559,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>429056</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>18769</xdr:rowOff>
+      <xdr:colOff>446048</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>182836</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4591,13 +4591,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>490925</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>143747</xdr:rowOff>
+      <xdr:rowOff>143746</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>419387</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>10815</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>47578</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4819,56 +4819,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.3599</cdr:x>
-      <cdr:y>0.03143</cdr:y>
+      <cdr:x>0.29368</cdr:x>
+      <cdr:y>0.04639</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.42268</cdr:x>
-      <cdr:y>0.09436</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="4" name="TextBox 3">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97E1F1FF-FDA8-F34A-810E-48280F90FC7C}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2656887" y="115752"/>
-          <a:ext cx="463460" cy="231765"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>2.22</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.29804</cdr:x>
-      <cdr:y>0.03136</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.36082</cdr:x>
-      <cdr:y>0.09429</cdr:y>
+      <cdr:x>0.42683</cdr:x>
+      <cdr:y>0.14375</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -4883,8 +4839,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2200236" y="115494"/>
-          <a:ext cx="463460" cy="231765"/>
+          <a:off x="2175187" y="99675"/>
+          <a:ext cx="986168" cy="209213"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4901,6 +4857,20 @@
             </a:rPr>
             <a:t>2.04</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>2.22</a:t>
+          </a:r>
         </a:p>
       </cdr:txBody>
     </cdr:sp>
@@ -4912,12 +4882,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.09322</cdr:x>
-      <cdr:y>0.11329</cdr:y>
+      <cdr:x>0.08935</cdr:x>
+      <cdr:y>0.17549</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.98205</cdr:x>
-      <cdr:y>0.17432</cdr:y>
+      <cdr:x>0.97818</cdr:x>
+      <cdr:y>0.26761</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -4932,8 +4902,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="685437" y="428861"/>
-          <a:ext cx="6535636" cy="231036"/>
+          <a:off x="655447" y="380317"/>
+          <a:ext cx="6520113" cy="199623"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -7126,7 +7096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="118" zoomScaleNormal="119" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="82" zoomScaleNormal="119" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -7841,7 +7811,7 @@
         <v>8</v>
       </c>
       <c r="B31" s="1">
-        <f t="shared" ref="B31:B43" si="0">B3/B3</f>
+        <f t="shared" ref="B31:B40" si="0">B3/B3</f>
         <v>1</v>
       </c>
       <c r="C31" s="4">

--- a/paper/data/regular/8node-final-pic.xlsx
+++ b/paper/data/regular/8node-final-pic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/Library/Mobile Documents/com~apple~CloudDocs/C:C++ project/numalloc/paper/data/regular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5C39BF-A7B2-5C4C-A090-33AB64263390}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D2C7A2-AA53-EB4C-82D5-3E18A7061C5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -575,7 +575,7 @@
                   <c:v>0.892534963976509</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0507177041148326</c:v>
+                  <c:v>1.0498647081201447</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1.025497512437811</c:v>
@@ -596,7 +596,7 @@
                   <c:v>0.9821656261902002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.8739486836724254</c:v>
+                  <c:v>0.87390378914638922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -743,7 +743,7 @@
                   <c:v>0.95731670400193747</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2162679425837322</c:v>
+                  <c:v>1.0800154619341624</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1.0890796019900497</c:v>
@@ -764,7 +764,7 @@
                   <c:v>0.97416748083260196</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.99364271754090294</c:v>
+                  <c:v>0.98647153434882018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -909,7 +909,7 @@
                   <c:v>0.89737845855784959</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3435406698564594</c:v>
+                  <c:v>1.1151913411905761</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.9552238805970148</c:v>
@@ -930,7 +930,7 @@
                   <c:v>0.98402026859196212</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0721756328687599</c:v>
+                  <c:v>1.0601572471495029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1077,7 +1077,7 @@
                   <c:v>0.90530968093479458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0928229665071771</c:v>
+                  <c:v>1.1623502125671108</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.97701492537313439</c:v>
@@ -1098,7 +1098,7 @@
                   <c:v>0.98269552401927518</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.98962264480738216</c:v>
+                  <c:v>0.99328197354737868</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1245,7 +1245,7 @@
                   <c:v>0.98952594296785135</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4622009569377992</c:v>
+                  <c:v>1.1542327019033474</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.97815920398009948</c:v>
@@ -1266,7 +1266,7 @@
                   <c:v>1.005431452748017</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0202464593991571</c:v>
+                  <c:v>1.0040376038710281</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1415,7 +1415,7 @@
                   <c:v>0.95017254949446028</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.5770334928229666</c:v>
+                  <c:v>1.028604561059538</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.98880597014925364</c:v>
@@ -1505,23 +1505,23 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200">
+                  <a:defRPr sz="1000">
                     <a:latin typeface="Times New Roman"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
                     <a:latin typeface="Times New Roman"/>
                   </a:rPr>
                   <a:t>Normalized</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" baseline="0">
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" baseline="0">
                     <a:latin typeface="Times New Roman"/>
                   </a:rPr>
                   <a:t> Runtime</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
                   <a:latin typeface="Times New Roman"/>
                 </a:endParaRPr>
               </a:p>
@@ -1531,8 +1531,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="7.5311948614242303E-3"/>
-              <c:y val="0.211897455914935"/>
+              <c:x val="1.2675233432006208E-2"/>
+              <c:y val="4.5887527947895412E-2"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2160,6 +2160,11 @@
             <c:idx val="2"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-8808-6046-8FC4-BBD187D0C1C2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -2346,8 +2351,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.17160820295114521"/>
-              <c:y val="0.92440973377113866"/>
+              <c:x val="0.14925813802343327"/>
+              <c:y val="0.8393617021276597"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2361,7 +2366,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100"/>
+              <a:defRPr sz="1000"/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2389,18 +2394,18 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr sz="1100"/>
+                  <a:defRPr sz="1000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:rPr lang="en-US" sz="1000"/>
                   <a:t>Normalized Runtime</a:t>
                 </a:r>
               </a:p>
               <a:p>
                 <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr sz="1100"/>
+                  <a:defRPr sz="1000"/>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN" sz="1100"/>
+                <a:endParaRPr lang="zh-CN" sz="1000"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2408,8 +2413,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="3.0373651956588723E-2"/>
-              <c:y val="0.2789748237562284"/>
+              <c:x val="2.0058288720175566E-2"/>
+              <c:y val="0.14709930188347681"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2441,7 +2446,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1100"/>
+            <a:defRPr sz="1000"/>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -4554,9 +4559,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>429056</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>18769</xdr:rowOff>
+      <xdr:colOff>446048</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>182836</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4586,13 +4591,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>490925</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>143747</xdr:rowOff>
+      <xdr:rowOff>143746</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>419387</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>10815</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>47578</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4814,56 +4819,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.3599</cdr:x>
-      <cdr:y>0.03143</cdr:y>
+      <cdr:x>0.29368</cdr:x>
+      <cdr:y>0.04639</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.42268</cdr:x>
-      <cdr:y>0.09436</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="4" name="TextBox 3">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97E1F1FF-FDA8-F34A-810E-48280F90FC7C}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2656887" y="115752"/>
-          <a:ext cx="463460" cy="231765"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>2.22</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.29804</cdr:x>
-      <cdr:y>0.03136</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.36082</cdr:x>
-      <cdr:y>0.09429</cdr:y>
+      <cdr:x>0.42683</cdr:x>
+      <cdr:y>0.14375</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -4878,8 +4839,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2200236" y="115494"/>
-          <a:ext cx="463460" cy="231765"/>
+          <a:off x="2175187" y="99675"/>
+          <a:ext cx="986168" cy="209213"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4896,6 +4857,20 @@
             </a:rPr>
             <a:t>2.04</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>2.22</a:t>
+          </a:r>
         </a:p>
       </cdr:txBody>
     </cdr:sp>
@@ -4907,12 +4882,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.09322</cdr:x>
-      <cdr:y>0.11329</cdr:y>
+      <cdr:x>0.08935</cdr:x>
+      <cdr:y>0.17549</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.98205</cdr:x>
-      <cdr:y>0.17432</cdr:y>
+      <cdr:x>0.97818</cdr:x>
+      <cdr:y>0.26761</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -4927,8 +4902,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="685437" y="428861"/>
-          <a:ext cx="6535636" cy="231036"/>
+          <a:off x="655447" y="380317"/>
+          <a:ext cx="6520113" cy="199623"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -7121,8 +7096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I27" zoomScale="189" zoomScaleNormal="119" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="82" zoomScaleNormal="119" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7468,25 +7443,25 @@
         <v>19</v>
       </c>
       <c r="B14" s="4">
-        <v>1.3062499999999999</v>
+        <v>3.2337500001300001</v>
       </c>
       <c r="C14" s="4">
-        <v>1.3725000009999999</v>
+        <v>3.39500000002</v>
       </c>
       <c r="D14" s="4">
-        <v>1.5887500000000001</v>
+        <v>3.4925000001700002</v>
       </c>
       <c r="E14" s="4">
-        <v>1.7549999999999999</v>
+        <v>3.6062499997200002</v>
       </c>
       <c r="F14" s="4">
-        <v>1.4275</v>
+        <v>3.75875000004</v>
       </c>
       <c r="G14" s="4">
-        <v>1.91</v>
+        <v>3.7324999999299999</v>
       </c>
       <c r="H14" s="4">
-        <v>2.06</v>
+        <v>3.3262499994599999</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -7749,24 +7724,9 @@
         <v>58578228</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-    </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8">
@@ -7851,7 +7811,7 @@
         <v>8</v>
       </c>
       <c r="B31" s="1">
-        <f t="shared" ref="B31:B41" si="0">B3/B3</f>
+        <f t="shared" ref="B31:B40" si="0">B3/B3</f>
         <v>1</v>
       </c>
       <c r="C31" s="4">
@@ -8181,7 +8141,7 @@
         <v>18</v>
       </c>
       <c r="B41" s="1">
-        <f t="shared" si="0"/>
+        <f>B13/B13</f>
         <v>1</v>
       </c>
       <c r="C41" s="4">
@@ -8214,32 +8174,32 @@
         <v>32</v>
       </c>
       <c r="B43" s="1">
-        <f t="shared" ref="B43" si="7">B14/B14</f>
+        <f>B14/B14</f>
         <v>1</v>
       </c>
       <c r="C43" s="4">
-        <f t="shared" ref="C43" si="8">C14/B14</f>
-        <v>1.0507177041148326</v>
+        <f>C14/B14</f>
+        <v>1.0498647081201447</v>
       </c>
       <c r="D43" s="4">
-        <f t="shared" ref="D43" si="9">D14/B14</f>
-        <v>1.2162679425837322</v>
+        <f>D14/B14</f>
+        <v>1.0800154619341624</v>
       </c>
       <c r="E43" s="4">
-        <f t="shared" ref="E43" si="10">E14/B14</f>
-        <v>1.3435406698564594</v>
+        <f>E14/B14</f>
+        <v>1.1151913411905761</v>
       </c>
       <c r="F43" s="4">
-        <f t="shared" ref="F43" si="11">F14/B14</f>
-        <v>1.0928229665071771</v>
+        <f>F14/B14</f>
+        <v>1.1623502125671108</v>
       </c>
       <c r="G43" s="4">
-        <f t="shared" ref="G43" si="12">G14/B14</f>
-        <v>1.4622009569377992</v>
+        <f>G14/B14</f>
+        <v>1.1542327019033474</v>
       </c>
       <c r="H43" s="4">
-        <f t="shared" ref="H43" si="13">H14/B14</f>
-        <v>1.5770334928229666</v>
+        <f>H14/B14</f>
+        <v>1.028604561059538</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -8460,23 +8420,23 @@
       </c>
       <c r="C51" s="21">
         <f>SUM(C30:C49)/19</f>
-        <v>0.8739486836724254</v>
+        <v>0.87390378914638922</v>
       </c>
       <c r="D51" s="21">
         <f>SUM(D30:D49)/19</f>
-        <v>0.99364271754090294</v>
+        <v>0.98647153434882018</v>
       </c>
       <c r="E51" s="21">
         <f>SUM(E30:E49)/19</f>
-        <v>1.0721756328687599</v>
+        <v>1.0601572471495029</v>
       </c>
       <c r="F51" s="21">
         <f>SUM(F30:F49)/19</f>
-        <v>0.98962264480738216</v>
+        <v>0.99328197354737868</v>
       </c>
       <c r="G51" s="21">
         <f>SUM(G30:G49)/19</f>
-        <v>1.0202464593991571</v>
+        <v>1.0040376038710281</v>
       </c>
       <c r="H51" s="21" t="e">
         <f>SUM(H30:H48)/18</f>
@@ -8622,27 +8582,27 @@
         <v>1</v>
       </c>
       <c r="C57" s="1">
-        <f t="shared" ref="C57:H57" si="14">SUM(C53:C56)/4</f>
+        <f t="shared" ref="C57:H57" si="7">SUM(C53:C56)/4</f>
         <v>0.47888853234667494</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>12.58951917242476</v>
       </c>
       <c r="E57" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>2.7464573482717212</v>
       </c>
       <c r="F57" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0.71234991166606543</v>
       </c>
       <c r="G57" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1.040938341979748</v>
       </c>
       <c r="H57" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0.90246156364517571</v>
       </c>
     </row>
@@ -10078,19 +10038,19 @@
         <v>2.904351480278947</v>
       </c>
       <c r="D112" s="4">
-        <f t="shared" ref="D112:G112" si="15">SUM(D93:D111)/19</f>
+        <f t="shared" ref="D112:G112" si="8">SUM(D93:D111)/19</f>
         <v>1.1174623462947371</v>
       </c>
       <c r="E112" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>1.1530452620684211</v>
       </c>
       <c r="F112" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>3.7991501938684205</v>
       </c>
       <c r="G112" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>0.98008090530526326</v>
       </c>
       <c r="H112" s="4">
@@ -10235,27 +10195,27 @@
         <v>1</v>
       </c>
       <c r="C118" s="1">
-        <f t="shared" ref="C118:H118" si="16">SUM(C114:C117)/4</f>
+        <f t="shared" ref="C118:H118" si="9">SUM(C114:C117)/4</f>
         <v>5.3574998009999995</v>
       </c>
       <c r="D118" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>0.57792230622499996</v>
       </c>
       <c r="E118" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>0.693669096875</v>
       </c>
       <c r="F118" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>9.4151598267499992</v>
       </c>
       <c r="G118" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>1.0144013049</v>
       </c>
       <c r="H118" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>25.73482796875</v>
       </c>
     </row>
